--- a/data/interim/1.10-sz-data-collection.xlsx
+++ b/data/interim/1.10-sz-data-collection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shulingzhang/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A68A10-9034-D74E-B358-C8A067C1DF6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFE3A7D-7705-EF4E-8D87-81046F82BD1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2020" yWindow="680" windowWidth="19420" windowHeight="15560" activeTab="1" xr2:uid="{5840F89D-34DD-4C7C-8EB1-E118F234EDE0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="530">
   <si>
     <t>ID</t>
   </si>
@@ -1607,21 +1607,6 @@
   </si>
   <si>
     <t>*2020 EndoRa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLCter </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EX_glygn2_c </t>
-  </si>
-  <si>
-    <t>GAPD </t>
-  </si>
-  <si>
-    <t>PGM </t>
-  </si>
-  <si>
-    <t>ENO </t>
   </si>
   <si>
     <t>PYK </t>
@@ -1959,7 +1944,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2066,12 +2051,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4746,13 +4739,14 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
-    <col min="2" max="3" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" style="22" customWidth="1"/>
     <col min="4" max="4" width="70.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4763,7 +4757,7 @@
       <c r="B1" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="19" t="s">
         <v>488</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -4771,272 +4765,272 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" thickBot="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="43">
+        <v>-1.682007621E-3</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>523</v>
+      </c>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" ht="16" thickBot="1">
+      <c r="A3" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="44">
+        <v>1.682007621E-3</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" thickBot="1">
+      <c r="A4" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="44">
+        <v>1.682007621E-3</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" thickBot="1">
+      <c r="A5" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="44">
+        <v>2.2273160280000001E-4</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16" thickBot="1">
+      <c r="A6" s="40" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="44">
+        <v>2.2273160280000001E-4</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16" thickBot="1">
+      <c r="A7" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="43">
+        <v>-2.2273160280000001E-4</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16" thickBot="1">
+      <c r="A8" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="43">
+        <v>-2.9185520359999999E-3</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" thickBot="1">
+      <c r="A9" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="44">
+        <v>2.9185520359999999E-3</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16" thickBot="1">
+      <c r="A10" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="44">
+        <v>2.9185520359999999E-3</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16" thickBot="1">
+      <c r="A11" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="43">
+        <v>-2.9185520359999999E-3</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16" thickBot="1">
+      <c r="A12" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="44">
+        <v>0</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16" thickBot="1">
+      <c r="A13" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="43">
+        <v>-2.9185520359999999E-3</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16" thickBot="1">
+      <c r="A14" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="43">
+        <v>2.9185520359999999E-3</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16" thickBot="1">
+      <c r="A15" s="41" t="s">
+        <v>331</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="43">
+        <v>0</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16" thickBot="1">
+      <c r="A16" s="41" t="s">
+        <v>330</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="43">
+        <v>-2.9185520359999999E-3</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16" thickBot="1">
+      <c r="A17" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="44">
+        <v>4.8770540600000002E-3</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16" thickBot="1">
+      <c r="A18" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="44">
+        <v>4.685044058E-3</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="B19" s="34"/>
+      <c r="C19" s="45">
+        <v>2.7265420340000001E-3</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="38" t="s">
         <v>520</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="38">
-        <v>-1.682007621E-3</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>528</v>
-      </c>
-      <c r="F2" s="18"/>
-    </row>
-    <row r="3" spans="1:6" ht="16" thickBot="1">
-      <c r="A3" s="41" t="s">
-        <v>288</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="39">
-        <v>1.682007621E-3</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16" thickBot="1">
-      <c r="A4" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="39">
-        <v>1.682007621E-3</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16" thickBot="1">
-      <c r="A5" s="41" t="s">
-        <v>290</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="39">
-        <v>2.2273160280000001E-4</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16" thickBot="1">
-      <c r="A6" s="41" t="s">
-        <v>291</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="39">
-        <v>2.2273160280000001E-4</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16" thickBot="1">
-      <c r="A7" s="40" t="s">
+      <c r="B20" s="35"/>
+      <c r="C20" s="44">
+        <v>1.950821624E-3</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="38" t="s">
         <v>521</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="38">
-        <v>-2.2273160280000001E-4</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16" thickBot="1">
-      <c r="A8" s="40" t="s">
+      <c r="C21" s="44">
+        <v>1.950821624E-3</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="C22" s="44">
+        <v>2.9031912360000002E-3</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16" thickBot="1">
+      <c r="A23" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="C23" s="44">
+        <v>3.095201238E-3</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16" thickBot="1">
+      <c r="A24" s="41" t="s">
         <v>522</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="38">
-        <v>-2.9185520359999999E-3</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16" thickBot="1">
-      <c r="A9" s="41" t="s">
-        <v>294</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="39">
-        <v>2.9185520359999999E-3</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16" thickBot="1">
-      <c r="A10" s="39" t="s">
-        <v>523</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="39">
-        <v>2.9185520359999999E-3</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16" thickBot="1">
-      <c r="A11" s="42" t="s">
-        <v>524</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="38">
-        <v>-2.9185520359999999E-3</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16" thickBot="1">
-      <c r="A12" s="42" t="s">
-        <v>333</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="39">
-        <v>0</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16" thickBot="1">
-      <c r="A13" s="42" t="s">
-        <v>332</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="38">
-        <v>-2.9185520359999999E-3</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16" thickBot="1">
-      <c r="A14" s="42" t="s">
-        <v>345</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="38">
-        <v>2.9185520359999999E-3</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16" thickBot="1">
-      <c r="A15" s="42" t="s">
-        <v>331</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="38">
-        <v>0</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16" thickBot="1">
-      <c r="A16" s="42" t="s">
-        <v>330</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="38">
-        <v>-2.9185520359999999E-3</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16" thickBot="1">
-      <c r="A17" s="41" t="s">
-        <v>297</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="39">
-        <v>4.8770540600000002E-3</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16" thickBot="1">
-      <c r="A18" s="41" t="s">
-        <v>298</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="39">
-        <v>4.685044058E-3</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="39" t="s">
-        <v>299</v>
-      </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="41">
-        <v>2.7265420340000001E-3</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="39" t="s">
-        <v>525</v>
-      </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="39">
-        <v>1.950821624E-3</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="39" t="s">
-        <v>526</v>
-      </c>
-      <c r="C21" s="39">
-        <v>1.950821624E-3</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="39" t="s">
-        <v>300</v>
-      </c>
-      <c r="C22" s="39">
-        <v>2.9031912360000002E-3</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16" thickBot="1">
-      <c r="A23" s="39" t="s">
-        <v>304</v>
-      </c>
-      <c r="C23" s="39">
-        <v>3.095201238E-3</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="16" thickBot="1">
-      <c r="A24" s="42" t="s">
-        <v>527</v>
-      </c>
-      <c r="C24" s="38">
+      <c r="C24" s="43">
         <v>-1.758811622E-3</v>
       </c>
       <c r="D24" s="37" t="s">
@@ -5044,10 +5038,10 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="42" t="s">
         <v>468</v>
       </c>
-      <c r="C25" s="39">
+      <c r="C25" s="44">
         <v>1.682007621E-3</v>
       </c>
       <c r="D25" s="36" t="s">
@@ -5055,7 +5049,7 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="40" t="s">
         <v>465</v>
       </c>
     </row>
